--- a/AfDD_2023_Annex_Table_Tab25.xlsx
+++ b/AfDD_2023_Annex_Table_Tab25.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab25" sheetId="1" r:id="rId1"/>

--- a/AfDD_2023_Annex_Table_Tab25.xlsx
+++ b/AfDD_2023_Annex_Table_Tab25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAC82B4D-3FFA-4C1E-AC78-E5AD3E525433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA77F468-7485-43D6-9699-6050C836893E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{DE3A6BDB-C25E-4344-A878-A7156E30D8D0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2AFAAB-E008-4D3E-9099-01A3075A8EDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab25" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: Based on the GHG Emissions from fuel combustion (summary) online dataset, International Energy Agency (IEA) (retrieved 23/09/2022).</t>
@@ -1266,7 +1266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93A3E74-9EA9-4838-9B95-59629C20F58E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF840E80-3C5D-4DDD-992B-8CD963F12A37}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5522,11 +5522,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{30EEA551-70B0-4713-9170-C9D7279A3DF7}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{684567C7-5F69-459E-A5A2-A7A39F63906B}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{CED3DB6E-C4B0-4F2C-A31C-3CEF3153E37B}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{AD555C09-DF65-4F93-B9A2-ED2AE1068048}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{A5D46B62-912A-480E-BAAF-6E0FD88A6DD5}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{4A4F287F-D185-43C0-B3ED-5CE69B370D4A}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{02614491-C890-4749-8B13-DE59E62BB74E}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{0DD8362A-13C6-47E8-95E2-60B6528ED7E9}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{40B154B1-89EF-42D6-BCE0-B5FBBB66112D}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{31AD1A40-EA7E-4790-B3B6-EF30EF522E63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab25.xlsx
+++ b/AfDD_2023_Annex_Table_Tab25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA77F468-7485-43D6-9699-6050C836893E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C3EE757-FAF5-4997-8E3B-B1617A1C52D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2AFAAB-E008-4D3E-9099-01A3075A8EDB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{77F86617-4B04-4760-99C9-D17948B76998}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab25" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab25'!$A$2:$M$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab25'!$A$1:$E$98</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -270,7 +270,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan</t>
+    <t>South Sudan*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -402,7 +402,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -1266,7 +1266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF840E80-3C5D-4DDD-992B-8CD963F12A37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0350025C-31E3-40F3-8C2B-B922428E8BCF}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2613,40 +2613,40 @@
       <c r="A34" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="23">
         <v>1830.7</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="24">
         <v>238</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="24">
         <v>29.4</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="24">
         <v>917.5</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="24">
         <v>80</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="24">
         <v>12.7</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="24">
         <v>81.8</v>
       </c>
-      <c r="J34" s="14">
-        <v>0</v>
-      </c>
-      <c r="K34" s="14">
-        <v>0</v>
-      </c>
-      <c r="L34" s="14">
+      <c r="J34" s="24">
+        <v>0</v>
+      </c>
+      <c r="K34" s="24">
+        <v>0</v>
+      </c>
+      <c r="L34" s="24">
         <v>908.4</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="23">
         <v>471.3</v>
       </c>
     </row>
@@ -3556,40 +3556,40 @@
       <c r="A57" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="23">
+      <c r="C57" s="16">
         <v>128450.5</v>
       </c>
-      <c r="D57" s="24">
+      <c r="D57" s="17">
         <v>11931.5</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="17">
         <v>7665.2</v>
       </c>
-      <c r="F57" s="24">
+      <c r="F57" s="17">
         <v>52555.3</v>
       </c>
-      <c r="G57" s="24">
+      <c r="G57" s="17">
         <v>41258.199999999997</v>
       </c>
-      <c r="H57" s="24">
+      <c r="H57" s="17">
         <v>949</v>
       </c>
-      <c r="I57" s="24">
+      <c r="I57" s="17">
         <v>14.3</v>
       </c>
-      <c r="J57" s="24">
-        <v>0</v>
-      </c>
-      <c r="K57" s="24">
+      <c r="J57" s="17">
+        <v>0</v>
+      </c>
+      <c r="K57" s="17">
         <v>527.5</v>
       </c>
-      <c r="L57" s="24">
+      <c r="L57" s="17">
         <v>51621.5</v>
       </c>
-      <c r="M57" s="23">
+      <c r="M57" s="16">
         <v>13549.4</v>
       </c>
     </row>
@@ -4052,25 +4052,25 @@
         <v>136</v>
       </c>
       <c r="C69" s="35">
-        <v>50555</v>
+        <v>59157.599999999999</v>
       </c>
       <c r="D69" s="36">
         <v>238</v>
       </c>
       <c r="E69" s="36">
-        <v>6700</v>
+        <v>6732.6</v>
       </c>
       <c r="F69" s="36">
-        <v>22999.5</v>
+        <v>25377.1</v>
       </c>
       <c r="G69" s="36">
-        <v>14154.8</v>
+        <v>20259.3</v>
       </c>
       <c r="H69" s="36">
         <v>842.1</v>
       </c>
       <c r="I69" s="36">
-        <v>1144</v>
+        <v>1219.0999999999999</v>
       </c>
       <c r="J69" s="36">
         <v>107</v>
@@ -4079,10 +4079,10 @@
         <v>142.80000000000001</v>
       </c>
       <c r="L69" s="36">
-        <v>22342.2</v>
+        <v>24410.5</v>
       </c>
       <c r="M69" s="35">
-        <v>4227.1000000000004</v>
+        <v>4239.8999999999996</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
@@ -4380,22 +4380,22 @@
         <v>144</v>
       </c>
       <c r="C77" s="35">
-        <v>885332.9</v>
+        <v>830120.7</v>
       </c>
       <c r="D77" s="36">
-        <v>69410.7</v>
+        <v>56200.9</v>
       </c>
       <c r="E77" s="36">
-        <v>155588.70000000001</v>
+        <v>147189.4</v>
       </c>
       <c r="F77" s="36">
-        <v>364650.6</v>
+        <v>340511.9</v>
       </c>
       <c r="G77" s="36">
-        <v>66269.600000000006</v>
+        <v>64560.7</v>
       </c>
       <c r="H77" s="36">
-        <v>10496.6</v>
+        <v>9861.9</v>
       </c>
       <c r="I77" s="36">
         <v>33641</v>
@@ -4407,10 +4407,10 @@
         <v>5637.2</v>
       </c>
       <c r="L77" s="36">
-        <v>340949.8</v>
+        <v>317014.7</v>
       </c>
       <c r="M77" s="35">
-        <v>178686.9</v>
+        <v>171566.2</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
@@ -4503,37 +4503,37 @@
         <v>147</v>
       </c>
       <c r="C80" s="41">
-        <v>337696.3</v>
+        <v>211076.5</v>
       </c>
       <c r="D80" s="42">
-        <v>25677.3</v>
+        <v>13983.8</v>
       </c>
       <c r="E80" s="42">
-        <v>28002.2</v>
+        <v>20366.400000000001</v>
       </c>
       <c r="F80" s="42">
-        <v>121806.8</v>
+        <v>70169</v>
       </c>
       <c r="G80" s="42">
-        <v>73331</v>
+        <v>32152.799999999999</v>
       </c>
       <c r="H80" s="42">
-        <v>3222</v>
+        <v>2285.6999999999998</v>
       </c>
       <c r="I80" s="42">
-        <v>379.2</v>
+        <v>446.7</v>
       </c>
       <c r="J80" s="42">
         <v>0</v>
       </c>
       <c r="K80" s="42">
-        <v>5166.3999999999996</v>
+        <v>4638.8999999999996</v>
       </c>
       <c r="L80" s="42">
-        <v>118294.7</v>
+        <v>67581.600000000006</v>
       </c>
       <c r="M80" s="41">
-        <v>80110.600000000006</v>
+        <v>67032.5</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
@@ -4585,37 +4585,37 @@
         <v>149</v>
       </c>
       <c r="C82" s="35">
-        <v>912980.4</v>
+        <v>1039600.2</v>
       </c>
       <c r="D82" s="36">
-        <v>71880.3</v>
+        <v>83573.8</v>
       </c>
       <c r="E82" s="36">
-        <v>119735.8</v>
+        <v>127371.6</v>
       </c>
       <c r="F82" s="36">
-        <v>221020.9</v>
+        <v>272658.7</v>
       </c>
       <c r="G82" s="36">
-        <v>94755.9</v>
+        <v>135934.1</v>
       </c>
       <c r="H82" s="36">
-        <v>10976</v>
+        <v>11912.3</v>
       </c>
       <c r="I82" s="36">
-        <v>14711.1</v>
+        <v>14643.6</v>
       </c>
       <c r="J82" s="36">
         <v>535.29999999999995</v>
       </c>
       <c r="K82" s="36">
-        <v>5243.9</v>
+        <v>5771.4</v>
       </c>
       <c r="L82" s="36">
-        <v>211926.6</v>
+        <v>262639.7</v>
       </c>
       <c r="M82" s="35">
-        <v>374115.6</v>
+        <v>387193.7</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4667,37 +4667,37 @@
         <v>151</v>
       </c>
       <c r="C84" s="41">
-        <v>108300.2</v>
+        <v>116847.6</v>
       </c>
       <c r="D84" s="42">
-        <v>652.6</v>
+        <v>672.9</v>
       </c>
       <c r="E84" s="42">
-        <v>14138.4</v>
+        <v>15550.9</v>
       </c>
       <c r="F84" s="42">
-        <v>43398.9</v>
+        <v>45945.599999999999</v>
       </c>
       <c r="G84" s="42">
-        <v>31131.200000000001</v>
+        <v>32848.9</v>
       </c>
       <c r="H84" s="42">
-        <v>2338.1</v>
+        <v>2409.3000000000002</v>
       </c>
       <c r="I84" s="42">
-        <v>1463.9</v>
+        <v>1584.3</v>
       </c>
       <c r="J84" s="42">
         <v>107</v>
       </c>
       <c r="K84" s="42">
-        <v>1619.5</v>
+        <v>1866.5</v>
       </c>
       <c r="L84" s="42">
-        <v>42024.4</v>
+        <v>44570.5</v>
       </c>
       <c r="M84" s="41">
-        <v>13446.4</v>
+        <v>15857.9</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
@@ -4749,37 +4749,37 @@
         <v>153</v>
       </c>
       <c r="C86" s="35">
-        <v>688523.1</v>
+        <v>679975.7</v>
       </c>
       <c r="D86" s="36">
-        <v>40014</v>
+        <v>39993.699999999997</v>
       </c>
       <c r="E86" s="36">
-        <v>79302.5</v>
+        <v>77890</v>
       </c>
       <c r="F86" s="36">
-        <v>230085.8</v>
+        <v>227539.1</v>
       </c>
       <c r="G86" s="36">
-        <v>121202.5</v>
+        <v>119484.8</v>
       </c>
       <c r="H86" s="36">
-        <v>6387.1</v>
+        <v>6315.9</v>
       </c>
       <c r="I86" s="36">
-        <v>8558.1</v>
+        <v>8437.7000000000007</v>
       </c>
       <c r="J86" s="36">
         <v>240</v>
       </c>
       <c r="K86" s="36">
-        <v>6103</v>
+        <v>5856</v>
       </c>
       <c r="L86" s="36">
-        <v>222902.1</v>
+        <v>220356</v>
       </c>
       <c r="M86" s="35">
-        <v>196628.7</v>
+        <v>194217.2</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
@@ -4790,22 +4790,22 @@
         <v>154</v>
       </c>
       <c r="C87" s="35">
-        <v>4409905.2</v>
+        <v>4430047.9000000004</v>
       </c>
       <c r="D87" s="36">
         <v>136097</v>
       </c>
       <c r="E87" s="36">
-        <v>980986.4</v>
+        <v>981599.9</v>
       </c>
       <c r="F87" s="36">
-        <v>761119</v>
+        <v>767127.1</v>
       </c>
       <c r="G87" s="36">
-        <v>386776.4</v>
+        <v>387392.2</v>
       </c>
       <c r="H87" s="36">
-        <v>78046.7</v>
+        <v>78037.899999999994</v>
       </c>
       <c r="I87" s="36">
         <v>66041.399999999994</v>
@@ -4814,13 +4814,13 @@
         <v>491.1</v>
       </c>
       <c r="K87" s="36">
-        <v>45497.3</v>
+        <v>45546.2</v>
       </c>
       <c r="L87" s="36">
-        <v>704739.3</v>
+        <v>710764.5</v>
       </c>
       <c r="M87" s="35">
-        <v>1954770.6</v>
+        <v>1967633.5</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
@@ -4872,37 +4872,37 @@
         <v>156</v>
       </c>
       <c r="C89" s="35">
-        <v>14493191.800000001</v>
+        <v>14397124.1</v>
       </c>
       <c r="D89" s="36">
-        <v>539026.9</v>
+        <v>536319.80000000005</v>
       </c>
       <c r="E89" s="36">
-        <v>3608767.9</v>
+        <v>3593420.4</v>
       </c>
       <c r="F89" s="36">
-        <v>1965145.7</v>
+        <v>1936951.7</v>
       </c>
       <c r="G89" s="36">
-        <v>766431.3</v>
+        <v>756839.2</v>
       </c>
       <c r="H89" s="36">
-        <v>206036</v>
+        <v>203681.1</v>
       </c>
       <c r="I89" s="36">
-        <v>183297.8</v>
+        <v>181899.5</v>
       </c>
       <c r="J89" s="36">
-        <v>4526.3999999999996</v>
+        <v>4494.5</v>
       </c>
       <c r="K89" s="36">
-        <v>79006</v>
+        <v>78327.100000000006</v>
       </c>
       <c r="L89" s="36">
-        <v>1662298.5</v>
+        <v>1634659.6</v>
       </c>
       <c r="M89" s="35">
-        <v>7140962.0999999996</v>
+        <v>7105202</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4913,37 +4913,37 @@
         <v>157</v>
       </c>
       <c r="C90" s="38">
-        <v>10685858.699999999</v>
+        <v>10761783.699999999</v>
       </c>
       <c r="D90" s="39">
-        <v>741394.3</v>
+        <v>744101.4</v>
       </c>
       <c r="E90" s="39">
-        <v>1403535.5</v>
+        <v>1418269.5</v>
       </c>
       <c r="F90" s="39">
-        <v>3190284.5</v>
+        <v>3212470.4</v>
       </c>
       <c r="G90" s="39">
-        <v>838892.9</v>
+        <v>847869.2</v>
       </c>
       <c r="H90" s="39">
-        <v>479361.3</v>
+        <v>481725</v>
       </c>
       <c r="I90" s="39">
-        <v>134851</v>
+        <v>136249.29999999999</v>
       </c>
       <c r="J90" s="39">
-        <v>13290.9</v>
+        <v>13322.8</v>
       </c>
       <c r="K90" s="39">
-        <v>18418.599999999999</v>
+        <v>19048.599999999999</v>
       </c>
       <c r="L90" s="39">
-        <v>2858332.2</v>
+        <v>2879945.9</v>
       </c>
       <c r="M90" s="38">
-        <v>3865819</v>
+        <v>3888716.2</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
@@ -5077,22 +5077,22 @@
         <v>161</v>
       </c>
       <c r="C94" s="35">
-        <v>166977.20000000001</v>
+        <v>134730.29999999999</v>
       </c>
       <c r="D94" s="36">
-        <v>13762.4</v>
+        <v>10607.1</v>
       </c>
       <c r="E94" s="36">
-        <v>28796.2</v>
+        <v>26677.599999999999</v>
       </c>
       <c r="F94" s="36">
-        <v>31431.4</v>
+        <v>28042.3</v>
       </c>
       <c r="G94" s="36">
-        <v>5117.7</v>
+        <v>4901.7</v>
       </c>
       <c r="H94" s="36">
-        <v>1288.4000000000001</v>
+        <v>1255.0999999999999</v>
       </c>
       <c r="I94" s="36">
         <v>1565</v>
@@ -5104,10 +5104,10 @@
         <v>2204.9</v>
       </c>
       <c r="L94" s="36">
-        <v>27790.3</v>
+        <v>24485.1</v>
       </c>
       <c r="M94" s="35">
-        <v>82726.8</v>
+        <v>59392.2</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.35">
@@ -5200,25 +5200,25 @@
         <v>164</v>
       </c>
       <c r="C97" s="41">
-        <v>384302.5</v>
+        <v>392794.4</v>
       </c>
       <c r="D97" s="42">
         <v>16051.5</v>
       </c>
       <c r="E97" s="42">
-        <v>38512.400000000001</v>
+        <v>39040.1</v>
       </c>
       <c r="F97" s="42">
-        <v>151997.70000000001</v>
+        <v>158338.20000000001</v>
       </c>
       <c r="G97" s="42">
-        <v>96620.800000000003</v>
+        <v>97349.6</v>
       </c>
       <c r="H97" s="42">
-        <v>6175.6</v>
+        <v>6502.7</v>
       </c>
       <c r="I97" s="42">
-        <v>3224.3</v>
+        <v>3286</v>
       </c>
       <c r="J97" s="42">
         <v>107</v>
@@ -5227,10 +5227,10 @@
         <v>2926.4</v>
       </c>
       <c r="L97" s="42">
-        <v>148652.6</v>
+        <v>154993.1</v>
       </c>
       <c r="M97" s="41">
-        <v>68680.399999999994</v>
+        <v>69186.600000000006</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5241,22 +5241,22 @@
         <v>165</v>
       </c>
       <c r="C98" s="38">
-        <v>1225638.5</v>
+        <v>1286621.1000000001</v>
       </c>
       <c r="D98" s="39">
-        <v>72985.399999999994</v>
+        <v>78152.3</v>
       </c>
       <c r="E98" s="39">
-        <v>235035.6</v>
+        <v>235885.6</v>
       </c>
       <c r="F98" s="39">
-        <v>294430</v>
+        <v>306949</v>
       </c>
       <c r="G98" s="39">
-        <v>184830.5</v>
+        <v>185299.4</v>
       </c>
       <c r="H98" s="39">
-        <v>26730.400000000001</v>
+        <v>40111.599999999999</v>
       </c>
       <c r="I98" s="39">
         <v>21271.7</v>
@@ -5265,13 +5265,13 @@
         <v>42</v>
       </c>
       <c r="K98" s="39">
-        <v>7737.3</v>
+        <v>19670.7</v>
       </c>
       <c r="L98" s="39">
-        <v>278396.7</v>
+        <v>286562.90000000002</v>
       </c>
       <c r="M98" s="38">
-        <v>382610.5</v>
+        <v>399272.9</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
@@ -5522,11 +5522,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{4A4F287F-D185-43C0-B3ED-5CE69B370D4A}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{02614491-C890-4749-8B13-DE59E62BB74E}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{0DD8362A-13C6-47E8-95E2-60B6528ED7E9}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{40B154B1-89EF-42D6-BCE0-B5FBBB66112D}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{31AD1A40-EA7E-4790-B3B6-EF30EF522E63}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{597D1B01-ABEA-4F9F-844A-39CC66B24A0C}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{EC7A9740-5641-42D9-A4A3-F3B24FFED4E3}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{A414C2F6-FEB3-4ABA-B090-D4521DB9C37A}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{1825BAB9-1E60-457E-AEB5-965A303CF489}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{A722CB9F-D2CF-40B3-92FB-A733686888B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab25.xlsx
+++ b/AfDD_2023_Annex_Table_Tab25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C3EE757-FAF5-4997-8E3B-B1617A1C52D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF9E2D56-2403-49D2-8EFA-008B68AA269D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{77F86617-4B04-4760-99C9-D17948B76998}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{920201C7-0715-4428-A74E-8BEFF1E25BDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab25" sheetId="1" r:id="rId1"/>
@@ -1266,7 +1266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0350025C-31E3-40F3-8C2B-B922428E8BCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15B4DD1-D0BE-407A-8676-04364A463E11}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5522,11 +5522,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{597D1B01-ABEA-4F9F-844A-39CC66B24A0C}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{EC7A9740-5641-42D9-A4A3-F3B24FFED4E3}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{A414C2F6-FEB3-4ABA-B090-D4521DB9C37A}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{1825BAB9-1E60-457E-AEB5-965A303CF489}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{A722CB9F-D2CF-40B3-92FB-A733686888B8}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{8D8034F5-058B-49CE-AFE4-4FBDB76E743C}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{535DA6D2-D60B-437C-999E-A7A49A7FEACF}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{39D28ACF-50A9-4643-BE86-910EC75F5DEA}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{05294A0E-B91D-47C0-92DB-99E1DA9A84FF}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{09318429-0926-4C40-98B3-CFFB4436676A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab25.xlsx
+++ b/AfDD_2023_Annex_Table_Tab25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF9E2D56-2403-49D2-8EFA-008B68AA269D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27A3CFC5-B912-4817-939B-ED58FECBEDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{920201C7-0715-4428-A74E-8BEFF1E25BDC}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{70F91D25-7BAB-41F7-95BE-FF42215289ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab25" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: Based on the GHG Emissions from fuel combustion (summary) online dataset, International Energy Agency (IEA) (retrieved 23/09/2022).</t>
@@ -1266,7 +1266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15B4DD1-D0BE-407A-8676-04364A463E11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899EE056-FEC5-4322-8AC2-55BEB697A7ED}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5200,37 +5200,37 @@
         <v>164</v>
       </c>
       <c r="C97" s="41">
-        <v>392794.4</v>
+        <v>349509.3</v>
       </c>
       <c r="D97" s="42">
-        <v>16051.5</v>
+        <v>14999.3</v>
       </c>
       <c r="E97" s="42">
-        <v>39040.1</v>
+        <v>35106.699999999997</v>
       </c>
       <c r="F97" s="42">
-        <v>158338.20000000001</v>
+        <v>140551.79999999999</v>
       </c>
       <c r="G97" s="42">
-        <v>97349.6</v>
+        <v>87872.3</v>
       </c>
       <c r="H97" s="42">
-        <v>6502.7</v>
+        <v>5411.9</v>
       </c>
       <c r="I97" s="42">
-        <v>3286</v>
+        <v>2890.9</v>
       </c>
       <c r="J97" s="42">
         <v>107</v>
       </c>
       <c r="K97" s="42">
-        <v>2926.4</v>
+        <v>2865</v>
       </c>
       <c r="L97" s="42">
-        <v>154993.1</v>
+        <v>137867.29999999999</v>
       </c>
       <c r="M97" s="41">
-        <v>69186.600000000006</v>
+        <v>59695.9</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5241,37 +5241,37 @@
         <v>165</v>
       </c>
       <c r="C98" s="38">
-        <v>1286621.1000000001</v>
+        <v>1119955.2</v>
       </c>
       <c r="D98" s="39">
-        <v>78152.3</v>
+        <v>64598.6</v>
       </c>
       <c r="E98" s="39">
-        <v>235885.6</v>
+        <v>218295.9</v>
       </c>
       <c r="F98" s="39">
-        <v>306949</v>
+        <v>264579.8</v>
       </c>
       <c r="G98" s="39">
-        <v>185299.4</v>
+        <v>168529.9</v>
       </c>
       <c r="H98" s="39">
-        <v>40111.599999999999</v>
+        <v>39406.1</v>
       </c>
       <c r="I98" s="39">
-        <v>21271.7</v>
+        <v>20501.7</v>
       </c>
       <c r="J98" s="39">
         <v>42</v>
       </c>
       <c r="K98" s="39">
-        <v>19670.7</v>
+        <v>19302.599999999999</v>
       </c>
       <c r="L98" s="39">
-        <v>286562.90000000002</v>
+        <v>244638.2</v>
       </c>
       <c r="M98" s="38">
-        <v>399272.9</v>
+        <v>324618.90000000002</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
@@ -5522,11 +5522,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{8D8034F5-058B-49CE-AFE4-4FBDB76E743C}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{535DA6D2-D60B-437C-999E-A7A49A7FEACF}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{39D28ACF-50A9-4643-BE86-910EC75F5DEA}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{05294A0E-B91D-47C0-92DB-99E1DA9A84FF}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{09318429-0926-4C40-98B3-CFFB4436676A}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{C004101F-6DF8-4875-9C2E-2A399C298723}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{AF60B5A4-594C-4C2F-B25F-50010CC50CD0}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{77DE92E5-7E8D-4FCC-983E-90EB91BE8EE9}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{BB5FFCC8-B4A5-4461-B1F7-45097563E3C4}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{EE41A27D-698A-465A-AA78-0A09763F1CD1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab25.xlsx
+++ b/AfDD_2023_Annex_Table_Tab25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27A3CFC5-B912-4817-939B-ED58FECBEDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6D7FCCE-77EB-4826-B7C5-A02BAE8E63D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{70F91D25-7BAB-41F7-95BE-FF42215289ED}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{F4A98027-4630-42C9-B9B0-03411AB9A179}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab25" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="178">
   <si>
     <t>Table 25: GHG Emissions by sector</t>
   </si>
@@ -558,16 +558,19 @@
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
-  </si>
-  <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
   </si>
   <si>
     <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
+  </si>
+  <si>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
+  </si>
+  <si>
+    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899EE056-FEC5-4322-8AC2-55BEB697A7ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0795B9-71FD-4121-ABDB-6C6CCEC91343}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5430,7 +5433,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C109" s="45"/>
       <c r="D109" s="45"/>
@@ -5446,7 +5449,7 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C110" s="45"/>
       <c r="D110" s="45"/>
@@ -5461,7 +5464,9 @@
       <c r="M110" s="45"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="C111" s="45"/>
       <c r="D111" s="45"/>
       <c r="E111" s="45"/>
@@ -5476,7 +5481,7 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C112" s="45"/>
       <c r="D112" s="45"/>
@@ -5492,7 +5497,7 @@
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C113" s="45"/>
       <c r="D113" s="45"/>
@@ -5522,13 +5527,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{C004101F-6DF8-4875-9C2E-2A399C298723}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{AF60B5A4-594C-4C2F-B25F-50010CC50CD0}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{77DE92E5-7E8D-4FCC-983E-90EB91BE8EE9}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{BB5FFCC8-B4A5-4461-B1F7-45097563E3C4}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{EE41A27D-698A-465A-AA78-0A09763F1CD1}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{67F45D2A-BDB3-4EF1-B637-71AF71D55AD0}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{73A2203D-A5A8-4856-9C04-5EA7292CC4E0}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{29113D9F-2D54-420A-A868-EB454401CD1C}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{A1DA2D40-3E39-49CE-9791-29398E572C11}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{9C337E85-5174-4544-8F33-CB3F62A2CCCA}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{2DFAE751-0DDD-4478-989E-698E7F4CE203}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/AfDD_2023_Annex_Table_Tab25.xlsx
+++ b/AfDD_2023_Annex_Table_Tab25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6D7FCCE-77EB-4826-B7C5-A02BAE8E63D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D02E111-864A-42E5-888B-899DE9190A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{F4A98027-4630-42C9-B9B0-03411AB9A179}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{0FAF1D5A-5207-4400-B089-8118B090F621}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab25" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab25'!$A$2:$M$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab25'!$A$1:$E$98</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1269,7 +1269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0795B9-71FD-4121-ABDB-6C6CCEC91343}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7910AFAA-3F3B-4A00-A69F-70DB82BA9028}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1277,14 +1277,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="12.36328125" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="12.33203125" style="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1300,7 +1300,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>3919.4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>2962.9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>85.9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>23</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>145.6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>1491.6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>86.3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>29</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>217919.3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>31</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>2411.5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>33</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>3866.2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>35</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>232889.2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>37</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>39</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>2480.3000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>41</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>43</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>193.6</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>45</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>2227.8000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>47</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>49</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>558.5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>51</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>1406.5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>53</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>58.4</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>35</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>7031</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>56</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>58</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>60</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>309.7</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>62</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>64</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>714.8</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>66</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>936.1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>68</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>2211.1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>70</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>219.3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>72</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>364.4</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>74</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>315.8</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>76</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>471.3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>78</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>5308.1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>80</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>2671.7</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>82</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>35</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>13732.6</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>85</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>38567.800000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>87</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>73516.899999999994</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>89</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>18642.099999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>91</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>762.1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>93</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>28510.6</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>95</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>9168.7999999999993</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="18" t="s">
         <v>35</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>169168.3</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>98</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>506.2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>100</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>412.3</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>102</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>283.39999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>104</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>3560.8</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>106</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>264.5</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>108</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>6371.5</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>110</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>552.29999999999995</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>112</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>114</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>246.3</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>116</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>1463.8</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>118</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>646.79999999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>120</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>13549.4</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>122</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>3246.8</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>124</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>126</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>231.8</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="18" t="s">
         <v>35</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>31405.1</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="26" t="s">
         <v>35</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>454226.2</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
         <v>35</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>12984473.9</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="33" t="s">
         <v>35</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>350513.6</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="33" t="s">
         <v>35</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>7589679.4000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="33" t="s">
         <v>35</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>13438700.1</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="33" t="s">
         <v>35</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>118531.4</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="33" t="s">
         <v>35</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>167752.1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="33" t="s">
         <v>35</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>4239.8999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="33" t="s">
         <v>35</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>11169.7</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="33" t="s">
         <v>35</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>31405.1</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="33" t="s">
         <v>35</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>7229.5</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="33" t="s">
         <v>35</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>239185.8</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="33" t="s">
         <v>35</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>95651.4</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="33" t="s">
         <v>35</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>5814.7</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="33" t="s">
         <v>35</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>707471.8</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="33" t="s">
         <v>35</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>171566.2</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="33" t="s">
         <v>35</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>738923.9</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="33" t="s">
         <v>35</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>3676763.9</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="33" t="s">
         <v>35</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>67032.5</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="33" t="s">
         <v>35</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>1628224.2</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="33" t="s">
         <v>35</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>387193.7</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="33" t="s">
         <v>35</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>11356249.699999999</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="33" t="s">
         <v>35</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>15857.9</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="33" t="s">
         <v>35</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>16165.9</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="33" t="s">
         <v>35</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>194217.2</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="33" t="s">
         <v>35</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>1967633.5</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="33" t="s">
         <v>35</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>243786.7</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="33" t="s">
         <v>35</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>7105202</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="33" t="s">
         <v>35</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>3888716.2</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="33" t="s">
         <v>35</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>27170.9</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
         <v>35</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>75913.7</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="33" t="s">
         <v>35</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>3079.7</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="33" t="s">
         <v>35</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>59392.2</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="33" t="s">
         <v>35</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>13035.2</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="33" t="s">
         <v>35</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>215124.7</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="33" t="s">
         <v>35</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>59695.9</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="33" t="s">
         <v>35</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>324618.90000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="43"/>
       <c r="B99" s="44"/>
       <c r="C99" s="29"/>
@@ -5292,7 +5292,7 @@
       <c r="L99" s="29"/>
       <c r="M99" s="29"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>166</v>
       </c>
@@ -5308,7 +5308,7 @@
       <c r="L100" s="45"/>
       <c r="M100" s="45"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>167</v>
       </c>
@@ -5324,7 +5324,7 @@
       <c r="L101" s="45"/>
       <c r="M101" s="45"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>168</v>
       </c>
@@ -5340,7 +5340,7 @@
       <c r="L102" s="45"/>
       <c r="M102" s="45"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>169</v>
       </c>
@@ -5356,7 +5356,7 @@
       <c r="L103" s="45"/>
       <c r="M103" s="45"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>170</v>
       </c>
@@ -5372,7 +5372,7 @@
       <c r="L104" s="45"/>
       <c r="M104" s="45"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>171</v>
       </c>
@@ -5388,7 +5388,7 @@
       <c r="L105" s="45"/>
       <c r="M105" s="45"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C106" s="45"/>
       <c r="D106" s="45"/>
       <c r="E106" s="45"/>
@@ -5401,7 +5401,7 @@
       <c r="L106" s="45"/>
       <c r="M106" s="45"/>
     </row>
-    <row r="107" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="46" t="s">
         <v>172</v>
       </c>
@@ -5417,7 +5417,7 @@
       <c r="L107" s="45"/>
       <c r="M107" s="45"/>
     </row>
-    <row r="108" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="46"/>
       <c r="C108" s="45"/>
       <c r="D108" s="45"/>
@@ -5431,7 +5431,7 @@
       <c r="L108" s="45"/>
       <c r="M108" s="45"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>175</v>
       </c>
@@ -5447,7 +5447,7 @@
       <c r="L109" s="45"/>
       <c r="M109" s="45"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>176</v>
       </c>
@@ -5463,7 +5463,7 @@
       <c r="L110" s="45"/>
       <c r="M110" s="45"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>177</v>
       </c>
@@ -5479,7 +5479,7 @@
       <c r="L111" s="45"/>
       <c r="M111" s="45"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>173</v>
       </c>
@@ -5495,7 +5495,7 @@
       <c r="L112" s="45"/>
       <c r="M112" s="45"/>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>174</v>
       </c>
@@ -5511,7 +5511,7 @@
       <c r="L113" s="45"/>
       <c r="M113" s="45"/>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="45"/>
       <c r="D114" s="45"/>
@@ -5527,12 +5527,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{67F45D2A-BDB3-4EF1-B637-71AF71D55AD0}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{73A2203D-A5A8-4856-9C04-5EA7292CC4E0}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{29113D9F-2D54-420A-A868-EB454401CD1C}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{A1DA2D40-3E39-49CE-9791-29398E572C11}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{9C337E85-5174-4544-8F33-CB3F62A2CCCA}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{2DFAE751-0DDD-4478-989E-698E7F4CE203}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{608C2D17-55F8-4EA4-8784-39CED12477CD}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{B99B6D4E-5E1B-484A-8BA3-104B85F41226}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{D9914FA3-F485-49B3-B06A-F67C4EFCA8A5}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{8FC591E8-74CC-47C8-8EAC-08054B6014DA}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{F79852B9-8085-4E92-B386-3246FE9E92B1}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{B6D0959B-40BD-4AB7-916B-8CED5E1A2E0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId7"/>
